--- a/ListasDatos/Duran Amezcua María Angélica_2021.xlsx
+++ b/ListasDatos/Duran Amezcua María Angélica_2021.xlsx
@@ -13,13 +13,14 @@
     <sheet name="5ARHM" sheetId="4" r:id="rId4"/>
     <sheet name="5BLCM" sheetId="5" r:id="rId5"/>
     <sheet name="5APM" sheetId="6" r:id="rId6"/>
+    <sheet name="3AEM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1545">
   <si>
     <t>NC</t>
   </si>
@@ -651,6 +652,9 @@
     <t>ORESTE JOSÉ AGUSTÍN GARCÍA RIOS</t>
   </si>
   <si>
+    <t>TOMAS ROJAS DEL CARMEN</t>
+  </si>
+  <si>
     <t>AXEL VELAZQUEZ SILVA</t>
   </si>
   <si>
@@ -1173,6 +1177,9 @@
     <t>ceciliasuarez128@gmail.com</t>
   </si>
   <si>
+    <t>laishastefanytzanahuaguevara@gmail.com</t>
+  </si>
+  <si>
     <t>yadiratexcahua@gmail.com</t>
   </si>
   <si>
@@ -1272,6 +1279,9 @@
     <t>2722362905</t>
   </si>
   <si>
+    <t>2722456950</t>
+  </si>
+  <si>
     <t>2722257040</t>
   </si>
   <si>
@@ -1356,6 +1366,9 @@
     <t>MARIA CRISTINA MARROQUIN CORONA</t>
   </si>
   <si>
+    <t>SANDRA DOMINGUEZ RIOS</t>
+  </si>
+  <si>
     <t>CRUZ FLORES JIMENEZ</t>
   </si>
   <si>
@@ -1380,6 +1393,9 @@
     <t>JAVIER MANUEL MANZANET HERNÁNDEZ</t>
   </si>
   <si>
+    <t>BEATRIZ MARTÍNEZ BERNAL</t>
+  </si>
+  <si>
     <t>ROGELIO MARQUEZ HERNANDEZ</t>
   </si>
   <si>
@@ -1413,6 +1429,9 @@
     <t>JOSÉ ANTONIO SUÁREZ LÓPEZ</t>
   </si>
   <si>
+    <t>ELIZABETH GUEVARA MOTA</t>
+  </si>
+  <si>
     <t>MARÍA VICTORIA GUADALUPE CABRERA BÁEZ</t>
   </si>
   <si>
@@ -1443,6 +1462,9 @@
     <t>cristinacorona144@gmail.com</t>
   </si>
   <si>
+    <t>alexxadomm03@gmail.com</t>
+  </si>
+  <si>
     <t>agl.1904.07@gmail.com</t>
   </si>
   <si>
@@ -1461,6 +1483,9 @@
     <t>huevin749@gmail.com</t>
   </si>
   <si>
+    <t>bottia082@gmail.com</t>
+  </si>
+  <si>
     <t>jaret9564@gmail.com</t>
   </si>
   <si>
@@ -1482,6 +1507,9 @@
     <t>antiojsmith14@gmail.com</t>
   </si>
   <si>
+    <t>guevaraelizabeth488@gmail.com</t>
+  </si>
+  <si>
     <t>baez94588@gmail.com</t>
   </si>
   <si>
@@ -1506,6 +1534,9 @@
     <t>2721206374</t>
   </si>
   <si>
+    <t>2722018429</t>
+  </si>
+  <si>
     <t>2721287650</t>
   </si>
   <si>
@@ -1530,6 +1561,9 @@
     <t>2721082864</t>
   </si>
   <si>
+    <t>2721525672</t>
+  </si>
+  <si>
     <t>2711012004</t>
   </si>
   <si>
@@ -1557,6 +1591,9 @@
     <t>2721016875</t>
   </si>
   <si>
+    <t>2721895648</t>
+  </si>
+  <si>
     <t>2721948449</t>
   </si>
   <si>
@@ -1881,7 +1918,7 @@
     <t>misaelxotlanihua@gmail.com</t>
   </si>
   <si>
-    <t>hersonlive@outlook.es</t>
+    <t>hersonxolio@gmail.com</t>
   </si>
   <si>
     <t>joeldeneyhernandez@gmail.com</t>
@@ -2094,6 +2131,9 @@
     <t>ANTONIO PACHECO APARICIO</t>
   </si>
   <si>
+    <t>BARSIMEO ISMAEL PAZ CESAR</t>
+  </si>
+  <si>
     <t>EDGAR ENRIQUE PATIÑO GARCÍA</t>
   </si>
   <si>
@@ -2124,6 +2164,9 @@
     <t>ISMAEL XOTLANIHUA REYES</t>
   </si>
   <si>
+    <t>ALVARO ELIAS XOLIO LINARES</t>
+  </si>
+  <si>
     <t>ELODIA XOTLANIHUA GUTIÉRREZ</t>
   </si>
   <si>
@@ -2226,7 +2269,7 @@
     <t>2721899640</t>
   </si>
   <si>
-    <t>52614500000000000</t>
+    <t>5.26145e+16</t>
   </si>
   <si>
     <t>2291159611</t>
@@ -2415,7 +2458,7 @@
     <t>herrerax484@gmail.com</t>
   </si>
   <si>
-    <t>karenjjimenez272@gmail.com</t>
+    <t>karenjjimenez02@gmail.com</t>
   </si>
   <si>
     <t>lopezamadorfernanda@gmail.com</t>
@@ -2484,7 +2527,7 @@
     <t>5623373226</t>
   </si>
   <si>
-    <t>6563386821</t>
+    <t>2721612552</t>
   </si>
   <si>
     <t>2722582314</t>
@@ -2577,6 +2620,9 @@
     <t>CENOBIO HERRERA REYES</t>
   </si>
   <si>
+    <t>MARIA ELENA SÁNCHEZ DATTOLI</t>
+  </si>
+  <si>
     <t>RITA AMADOR JIMÉNEZ</t>
   </si>
   <si>
@@ -2622,7 +2668,7 @@
     <t>GASTON XOTLANIHUA XOTLANIHUA</t>
   </si>
   <si>
-    <t>DESCONOCIDO DESCONOCIDO DESCONOCIDO</t>
+    <t>ABIGAIL XOTLANIHUA TLECUILE</t>
   </si>
   <si>
     <t>MAGDALENA ROBLES RAMÍREZ</t>
@@ -2643,6 +2689,9 @@
     <t>herreraoscar0889@gmail.com</t>
   </si>
   <si>
+    <t>SanchezDattoli@hotmail.com</t>
+  </si>
+  <si>
     <t>ritaamador16@gmail.com</t>
   </si>
   <si>
@@ -2694,6 +2743,9 @@
     <t>2722072939</t>
   </si>
   <si>
+    <t>2721574677</t>
+  </si>
+  <si>
     <t>2721813355</t>
   </si>
   <si>
@@ -2733,6 +2785,9 @@
     <t>2722079339</t>
   </si>
   <si>
+    <t>2722265954</t>
+  </si>
+  <si>
     <t>AMABLE</t>
   </si>
   <si>
@@ -3949,6 +4004,657 @@
   </si>
   <si>
     <t>2721075025</t>
+  </si>
+  <si>
+    <t>ADELL</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COLOTL</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>VINALAY</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>ALMA RUBI</t>
+  </si>
+  <si>
+    <t>NEHIZER JAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING URIEL</t>
+  </si>
+  <si>
+    <t>DIEGO ADELFO</t>
+  </si>
+  <si>
+    <t>ANDRES NOEL</t>
+  </si>
+  <si>
+    <t>OCTAVIO</t>
+  </si>
+  <si>
+    <t>JESUS HAZAEL</t>
+  </si>
+  <si>
+    <t>JESUS DARIO</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL SAID</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>JOSE MATEO</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>DIANA ARELI</t>
+  </si>
+  <si>
+    <t>ANGEL AMILCAR</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
+    <t>hectorapale2005@gmail.com</t>
+  </si>
+  <si>
+    <t>cristopheralainadellaguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>barraganjair91@gmail.com</t>
+  </si>
+  <si>
+    <t>fredito261200@gmail.com</t>
+  </si>
+  <si>
+    <t>buenojoso1951@gmail.com</t>
+  </si>
+  <si>
+    <t>cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
+    <t>misaelcocotle3@gmail.com</t>
+  </si>
+  <si>
+    <t>arubicf.08@gmail.com</t>
+  </si>
+  <si>
+    <t>nehizercortesmolohua@gmail.com</t>
+  </si>
+  <si>
+    <t>josuecoronaperez078@gmail.com</t>
+  </si>
+  <si>
+    <t>marianaatex@gmail.com</t>
+  </si>
+  <si>
+    <t>jaircoyohua45@gmail.com</t>
+  </si>
+  <si>
+    <t>espiritua676@gmail.com</t>
+  </si>
+  <si>
+    <t>espirituignacio03@gmail.com</t>
+  </si>
+  <si>
+    <t>chikimarcos248@gmail.com</t>
+  </si>
+  <si>
+    <t>alexismanuelgarciaguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>jmhdezbal2211@gmail.com</t>
+  </si>
+  <si>
+    <t>urielherrera9985@gmali.com</t>
+  </si>
+  <si>
+    <t>de.jesus.perez.670@gmail.com</t>
+  </si>
+  <si>
+    <t>andresnoellopez@gmail.com</t>
+  </si>
+  <si>
+    <t>octaviomazahuatexoco@gmail.com</t>
+  </si>
+  <si>
+    <t>jesushazaelmj@gmail.com</t>
+  </si>
+  <si>
+    <t>jedaniac1510@gmail.com</t>
+  </si>
+  <si>
+    <t>jniciomorales@gmail.com</t>
+  </si>
+  <si>
+    <t>abrahampereez13@gmail.com</t>
+  </si>
+  <si>
+    <t>angelsaidreyes7@gmail.com</t>
+  </si>
+  <si>
+    <t>luisglez242@gmail.com</t>
+  </si>
+  <si>
+    <t>rosasdulce877@gmail.com</t>
+  </si>
+  <si>
+    <t>matyuromero15@gmail.com</t>
+  </si>
+  <si>
+    <t>omaryopihua202@gmail.com</t>
+  </si>
+  <si>
+    <t>misaeltequihuatle@gmail.com</t>
+  </si>
+  <si>
+    <t>texcahuadiana@mail.com</t>
+  </si>
+  <si>
+    <t>angelvazg123@gmail.com</t>
+  </si>
+  <si>
+    <t>mc524170@gmail.com</t>
+  </si>
+  <si>
+    <t>josexotlanihua219@gmail.com</t>
+  </si>
+  <si>
+    <t>cristalzepahua8@gmail.com</t>
+  </si>
+  <si>
+    <t>2721206083</t>
+  </si>
+  <si>
+    <t>2722467280</t>
+  </si>
+  <si>
+    <t>2722827808</t>
+  </si>
+  <si>
+    <t>2722276706</t>
+  </si>
+  <si>
+    <t>2721546150</t>
+  </si>
+  <si>
+    <t>2721079631</t>
+  </si>
+  <si>
+    <t>2451221093</t>
+  </si>
+  <si>
+    <t>2721302866</t>
+  </si>
+  <si>
+    <t>2723353859</t>
+  </si>
+  <si>
+    <t>2722061254</t>
+  </si>
+  <si>
+    <t>2721902929</t>
+  </si>
+  <si>
+    <t>2722594287</t>
+  </si>
+  <si>
+    <t>2723354324</t>
+  </si>
+  <si>
+    <t>5617691924</t>
+  </si>
+  <si>
+    <t>2722279611</t>
+  </si>
+  <si>
+    <t>2725722871</t>
+  </si>
+  <si>
+    <t>2721623861</t>
+  </si>
+  <si>
+    <t>2722106856</t>
+  </si>
+  <si>
+    <t>2722144841</t>
+  </si>
+  <si>
+    <t>2721274965</t>
+  </si>
+  <si>
+    <t>2722617826</t>
+  </si>
+  <si>
+    <t>2721171210</t>
+  </si>
+  <si>
+    <t>2722273911</t>
+  </si>
+  <si>
+    <t>2722071414</t>
+  </si>
+  <si>
+    <t>2721045848</t>
+  </si>
+  <si>
+    <t>2722454900</t>
+  </si>
+  <si>
+    <t>2721733126</t>
+  </si>
+  <si>
+    <t>2721680483</t>
+  </si>
+  <si>
+    <t>2722346350</t>
+  </si>
+  <si>
+    <t>2722367224</t>
+  </si>
+  <si>
+    <t>2721536643</t>
+  </si>
+  <si>
+    <t>2721077099</t>
+  </si>
+  <si>
+    <t>2722963091</t>
+  </si>
+  <si>
+    <t>2721568720</t>
+  </si>
+  <si>
+    <t>2722838186</t>
+  </si>
+  <si>
+    <t>2721002793</t>
+  </si>
+  <si>
+    <t>2721150022</t>
+  </si>
+  <si>
+    <t>2722048097</t>
+  </si>
+  <si>
+    <t>2721060279</t>
+  </si>
+  <si>
+    <t>2721282328</t>
+  </si>
+  <si>
+    <t>2721235701</t>
+  </si>
+  <si>
+    <t>2722172352</t>
+  </si>
+  <si>
+    <t>2727224592</t>
+  </si>
+  <si>
+    <t>2723344483</t>
+  </si>
+  <si>
+    <t>2721915165</t>
+  </si>
+  <si>
+    <t>GREGORIO APALE CASTILLO</t>
+  </si>
+  <si>
+    <t>MAGALI YAZMIN ADELL AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO CASTILLO SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>JOSÉ ALFREDO BERNABE LEYVA</t>
+  </si>
+  <si>
+    <t>JOSÉ SOCORRO BUENO GARCÍA</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER CORTÉZ LEYNES</t>
+  </si>
+  <si>
+    <t>ANDRES COCOTLE MARTINEZ</t>
+  </si>
+  <si>
+    <t>BERNARDINO COLOTL GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>MATEO MARCOS ITEHUA</t>
+  </si>
+  <si>
+    <t>JOSUÉ CORONA SEOANE</t>
+  </si>
+  <si>
+    <t>ISMAEL COCOTLE JIMENEZ</t>
+  </si>
+  <si>
+    <t>PABLO COYOHUA MIXTECO</t>
+  </si>
+  <si>
+    <t>IGNACIO ESPIRITU APALE</t>
+  </si>
+  <si>
+    <t>ALEJO FLORES CRESCENCIO</t>
+  </si>
+  <si>
+    <t>JOSÉ MANUEL GARCIA ESTRADA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS HERNÁNDEZ SANTOS</t>
+  </si>
+  <si>
+    <t>OLGA HERRERA AMADOR</t>
+  </si>
+  <si>
+    <t>ADELFO DE JESUS PEREZ</t>
+  </si>
+  <si>
+    <t>EVODIO LÓPEZ RAMOS</t>
+  </si>
+  <si>
+    <t>OCTAVIO MAZAHUA TZOYOHUA</t>
+  </si>
+  <si>
+    <t>WILFRIDO MOLOHUA TOCOHUA</t>
+  </si>
+  <si>
+    <t>DARIO NIEVES FLORES</t>
+  </si>
+  <si>
+    <t>VICTOR NICIO JERÓNIMO</t>
+  </si>
+  <si>
+    <t>ELOY PEDRO PEREZ PONCE</t>
+  </si>
+  <si>
+    <t>MOISÉS REYES FLORES</t>
+  </si>
+  <si>
+    <t>CECILIO ROMAN HILARIO</t>
+  </si>
+  <si>
+    <t>JOSÉ ANTONIO ROSAS ACEVEDO</t>
+  </si>
+  <si>
+    <t>RAMIRO ROMERO FLORES</t>
+  </si>
+  <si>
+    <t>CONSTANTINO TZANAHUA XOTLANIHIA</t>
+  </si>
+  <si>
+    <t>BERNARDINO TEQUIHUATLE MARTINEZ</t>
+  </si>
+  <si>
+    <t>MARÍA CALIXTA TEXCAHUA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>RAMIRO VAZQUEZ MENDOZA</t>
+  </si>
+  <si>
+    <t>LUIS XOCUA MIXTECO</t>
+  </si>
+  <si>
+    <t>JOSÉ ANTONIO XOTLANIHUA TEZOCO</t>
+  </si>
+  <si>
+    <t>ANGELICA BERISTAIN ZEPAHUA</t>
+  </si>
+  <si>
+    <t>Macrisadri18@gmail.com</t>
+  </si>
+  <si>
+    <t>dianacastillo203110@gmail.com</t>
+  </si>
+  <si>
+    <t>bernabejosealfredo718@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Bernardino colotl@gmail.com</t>
+  </si>
+  <si>
+    <t>Coronaseoanejosue@gmail.com</t>
+  </si>
+  <si>
+    <t>mayteabctexx@gmail.com</t>
+  </si>
+  <si>
+    <t>pablocoyohua941@gmail.com</t>
+  </si>
+  <si>
+    <t>charly0805.jch@gmail.com</t>
+  </si>
+  <si>
+    <t>olgaherreraamador@gmail.com</t>
+  </si>
+  <si>
+    <t>amadorandrea560@gmail.com</t>
+  </si>
+  <si>
+    <t>willymol2305@gmail.com</t>
+  </si>
+  <si>
+    <t>reyesmoises584@gmail.com</t>
+  </si>
+  <si>
+    <t>roman_anit24@hotmail.com</t>
+  </si>
+  <si>
+    <t>joseantoniorosasacev@gmail.com</t>
+  </si>
+  <si>
+    <t>costatzanahua6@gmail.com</t>
+  </si>
+  <si>
+    <t>Bernardinomartinez586@gmail.com</t>
+  </si>
+  <si>
+    <t>mariatexcahua@gmail.com</t>
+  </si>
+  <si>
+    <t>Gomezflores798625@gmail.com</t>
+  </si>
+  <si>
+    <t>20antonio2016@gmail.com</t>
+  </si>
+  <si>
+    <t>angelicaberistain050@gmail.com</t>
+  </si>
+  <si>
+    <t>2722452138</t>
+  </si>
+  <si>
+    <t>2722458911</t>
+  </si>
+  <si>
+    <t>2721222605</t>
+  </si>
+  <si>
+    <t>2721566645</t>
+  </si>
+  <si>
+    <t>2722276264</t>
+  </si>
+  <si>
+    <t>2722845876</t>
+  </si>
+  <si>
+    <t>2721021958</t>
+  </si>
+  <si>
+    <t>2727089491</t>
+  </si>
+  <si>
+    <t>2721907584</t>
+  </si>
+  <si>
+    <t>2721233973</t>
+  </si>
+  <si>
+    <t>2721552833</t>
+  </si>
+  <si>
+    <t>2721909537</t>
+  </si>
+  <si>
+    <t>2722594291</t>
+  </si>
+  <si>
+    <t>2721561531</t>
+  </si>
+  <si>
+    <t>2721315447</t>
+  </si>
+  <si>
+    <t>2722818883</t>
+  </si>
+  <si>
+    <t>2727054539</t>
+  </si>
+  <si>
+    <t>2721644214</t>
+  </si>
+  <si>
+    <t>2721353344</t>
+  </si>
+  <si>
+    <t>2722146723</t>
+  </si>
+  <si>
+    <t>2721892372</t>
+  </si>
+  <si>
+    <t>2722953127</t>
+  </si>
+  <si>
+    <t>2722618826</t>
+  </si>
+  <si>
+    <t>2721814193</t>
+  </si>
+  <si>
+    <t>2727051180</t>
+  </si>
+  <si>
+    <t>2721271983</t>
+  </si>
+  <si>
+    <t>2721834738</t>
   </si>
 </sst>
 </file>
@@ -4379,10 +5085,10 @@
         <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4408,10 +5114,10 @@
         <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4437,7 +5143,7 @@
         <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4466,10 +5172,10 @@
         <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4498,10 +5204,10 @@
         <v>185</v>
       </c>
       <c r="I6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4530,10 +5236,10 @@
         <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4562,10 +5268,10 @@
         <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4594,10 +5300,10 @@
         <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4626,10 +5332,10 @@
         <v>189</v>
       </c>
       <c r="I10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4658,10 +5364,10 @@
         <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4690,10 +5396,10 @@
         <v>191</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4722,10 +5428,10 @@
         <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4754,10 +5460,10 @@
         <v>193</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4786,10 +5492,10 @@
         <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4818,10 +5524,10 @@
         <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4879,10 +5585,10 @@
         <v>197</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4908,10 +5614,10 @@
         <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4940,10 +5646,10 @@
         <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4969,7 +5675,7 @@
         <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4998,10 +5704,10 @@
         <v>201</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5027,7 +5733,7 @@
         <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5056,10 +5762,10 @@
         <v>203</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5085,10 +5791,10 @@
         <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5117,10 +5823,10 @@
         <v>205</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5149,10 +5855,10 @@
         <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5178,10 +5884,10 @@
         <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5233,10 +5939,10 @@
         <v>209</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5258,6 +5964,9 @@
       <c r="F31" t="s">
         <v>163</v>
       </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
@@ -5279,7 +5988,7 @@
         <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -5311,13 +6020,13 @@
         <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5343,10 +6052,10 @@
         <v>179</v>
       </c>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
         <v>179</v>
@@ -5375,13 +6084,13 @@
         <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5404,13 +6113,13 @@
         <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5436,7 +6145,7 @@
         <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
         <v>132</v>
@@ -5468,13 +6177,13 @@
         <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5536,31 +6245,31 @@
         <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5568,31 +6277,31 @@
         <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J3" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5600,28 +6309,28 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="I4" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5629,31 +6338,31 @@
         <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I5" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J5" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5661,25 +6370,25 @@
         <v>19330051920271</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5687,28 +6396,28 @@
         <v>19330051920268</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5716,28 +6425,28 @@
         <v>19330051920274</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I8" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J8" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5748,28 +6457,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I9" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="J9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5777,19 +6486,28 @@
         <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="H10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I10" t="s">
+        <v>480</v>
+      </c>
+      <c r="J10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5803,25 +6521,25 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J11" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5832,25 +6550,25 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I12" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="J12" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5858,31 +6576,31 @@
         <v>19330051920449</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H13" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I13" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="J13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5890,31 +6608,31 @@
         <v>19330051920279</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I14" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J14" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5925,28 +6643,28 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I15" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="J15" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5954,31 +6672,31 @@
         <v>19330051920447</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H16" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I16" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="J16" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5989,28 +6707,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H17" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I17" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="J17" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6018,28 +6736,28 @@
         <v>19330051920286</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H18" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J18" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6047,19 +6765,28 @@
         <v>18330051920336</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="H19" t="s">
+        <v>457</v>
+      </c>
+      <c r="I19" t="s">
+        <v>487</v>
+      </c>
+      <c r="J19" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6067,28 +6794,28 @@
         <v>19330051920287</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H20" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I20" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="J20" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6099,28 +6826,28 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H21" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I21" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="J21" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6134,25 +6861,25 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G22" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H22" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6160,28 +6887,28 @@
         <v>19330051920292</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J23" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6195,25 +6922,25 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G24" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H24" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6221,28 +6948,28 @@
         <v>19330051920294</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H25" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I25" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="J25" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6256,25 +6983,25 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J26" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6285,28 +7012,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I27" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6314,31 +7041,31 @@
         <v>19330051920297</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G28" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H28" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I28" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="J28" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6346,31 +7073,31 @@
         <v>19330051920298</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H29" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="I29" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="J29" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6378,31 +7105,31 @@
         <v>19330051920299</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H30" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="I30" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="J30" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6410,13 +7137,28 @@
         <v>19330051920301</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="E31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H31" t="s">
+        <v>469</v>
+      </c>
+      <c r="I31" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6424,28 +7166,28 @@
         <v>18330051920346</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E32" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H32" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="I32" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="J32" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6453,31 +7195,31 @@
         <v>19330051920443</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F33" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G33" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="I33" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="J33" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6485,25 +7227,28 @@
         <v>19330051920300</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H34" t="s">
-        <v>466</v>
+        <v>472</v>
+      </c>
+      <c r="I34" t="s">
+        <v>388</v>
       </c>
       <c r="J34" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6511,28 +7256,28 @@
         <v>19330051920305</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H35" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="I35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="J35" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6597,28 +7342,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="F2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="G2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="H2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="I2" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="J2" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6626,31 +7371,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F3" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="I3" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="J3" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6658,31 +7403,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F4" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="G4" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="H4" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="I4" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="J4" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6690,28 +7435,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E5" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="H5" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="I5" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="J5" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6719,28 +7464,25 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C6" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G6" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H6" t="s">
-        <v>671</v>
-      </c>
-      <c r="J6" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6748,31 +7490,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="E7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="G7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="H7" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="I7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="J7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6786,25 +7528,25 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="F8" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="G8" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="H8" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="I8" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="J8" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6815,25 +7557,25 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="E9" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="F9" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="I9" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="J9" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6844,19 +7586,19 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D10" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="E10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F10" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="H10" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6864,28 +7606,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="E11" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="H11" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="I11" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="J11" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6899,22 +7641,22 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F12" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="G12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="H12" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="J12" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6922,31 +7664,31 @@
         <v>19330051920325</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G13" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="H13" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="I13" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="J13" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6957,28 +7699,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D14" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E14" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="G14" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="H14" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="I14" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="J14" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6989,28 +7731,28 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E15" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F15" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="G15" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="H15" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="I15" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="J15" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7018,31 +7760,31 @@
         <v>19330051920321</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="E16" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H16" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="I16" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="J16" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7053,25 +7795,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D17" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F17" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="H17" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="I17" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="J17" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7079,28 +7821,28 @@
         <v>19330051920332</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E18" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="F18" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="G18" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="J18" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7108,28 +7850,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E19" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F19" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H19" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="J19" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7137,31 +7879,31 @@
         <v>19330051920333</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="E20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="F20" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="G20" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H20" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="I20" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="J20" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7169,28 +7911,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="E21" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="F21" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="H21" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="I21" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="J21" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7198,31 +7940,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B22" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E22" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F22" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="G22" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H22" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="I22" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="J22" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7230,31 +7972,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C23" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D23" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E23" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F23" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G23" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="H23" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="I23" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="J23" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7262,25 +8004,25 @@
         <v>19330051920339</v>
       </c>
       <c r="B24" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E24" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="H24" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="J24" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7288,31 +8030,31 @@
         <v>19330051920340</v>
       </c>
       <c r="B25" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E25" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F25" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="G25" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="H25" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="I25" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="J25" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7320,31 +8062,31 @@
         <v>19330051920445</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E26" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="G26" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="H26" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="I26" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="J26" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7352,19 +8094,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B27" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C27" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D27" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E27" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="F27" t="s">
-        <v>647</v>
+        <v>659</v>
+      </c>
+      <c r="H27" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7372,31 +8117,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B28" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D28" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="E28" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="F28" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="G28" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="H28" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="I28" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="J28" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7410,22 +8155,22 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E29" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F29" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="H29" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="I29" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="J29" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7433,31 +8178,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C30" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D30" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="E30" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="F30" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="G30" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H30" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="I30" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="J30" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7471,22 +8216,22 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E31" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F31" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="G31" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="H31" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="J31" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7497,28 +8242,28 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="E32" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="F32" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="G32" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="H32" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="I32" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="J32" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7529,28 +8274,28 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D33" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E33" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="F33" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G33" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="H33" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="I33" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="J33" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7558,31 +8303,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D34" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E34" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F34" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="G34" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="H34" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="I34" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="J34" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7590,31 +8335,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E35" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="F35" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="G35" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="H35" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="I35" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="J35" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7622,25 +8367,25 @@
         <v>19330051920352</v>
       </c>
       <c r="B36" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="E36" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="F36" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="H36" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="J36" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7654,25 +8399,25 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E37" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="F37" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G37" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="H37" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="I37" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="J37" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7680,19 +8425,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B38" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E38" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="F38" t="s">
-        <v>658</v>
+        <v>670</v>
+      </c>
+      <c r="H38" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7709,22 +8457,22 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="F39" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="G39" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="H39" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="I39" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="J39" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -7786,31 +8534,31 @@
         <v>19330051920125</v>
       </c>
       <c r="B2" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="E2" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="H2" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="I2" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="J2" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7821,28 +8569,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="E3" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="F3" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="G3" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="H3" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="I3" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="J3" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7850,31 +8598,31 @@
         <v>19330051920127</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="F4" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="G4" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="H4" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="I4" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="J4" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7885,25 +8633,25 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="F5" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="H5" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="I5" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="J5" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7914,28 +8662,28 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="D6" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="F6" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="G6" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="H6" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="I6" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="J6" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7943,19 +8691,28 @@
         <v>19330051920130</v>
       </c>
       <c r="B7" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="E7" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="F7" t="s">
-        <v>821</v>
+        <v>835</v>
+      </c>
+      <c r="H7" t="s">
+        <v>866</v>
+      </c>
+      <c r="I7" t="s">
+        <v>889</v>
+      </c>
+      <c r="J7" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7966,28 +8723,28 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="F8" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="G8" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="H8" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="I8" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="J8" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7998,28 +8755,28 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="E9" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="F9" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="G9" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H9" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="I9" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="J9" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8027,25 +8784,25 @@
         <v>19330051920132</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="E10" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="F10" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="G10" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="H10" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8053,28 +8810,28 @@
         <v>19330051920133</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="E11" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="F11" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="H11" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="I11" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="J11" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8082,31 +8839,31 @@
         <v>19330051920134</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="E12" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="F12" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="G12" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="H12" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="I12" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="J12" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8114,28 +8871,28 @@
         <v>19330051920135</v>
       </c>
       <c r="B13" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="E13" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="F13" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="H13" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="I13" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="J13" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8143,28 +8900,28 @@
         <v>19330051920002</v>
       </c>
       <c r="B14" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="F14" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="H14" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="I14" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="J14" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8175,28 +8932,28 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="F15" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="G15" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="H15" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="I15" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="J15" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8204,31 +8961,31 @@
         <v>19330051920137</v>
       </c>
       <c r="B16" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="D16" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="E16" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="F16" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="G16" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="H16" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="I16" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="J16" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8236,31 +8993,31 @@
         <v>19330051920140</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="C17" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="D17" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="E17" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="F17" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="G17" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="H17" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="I17" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="J17" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8268,7 +9025,7 @@
         <v>19330051920139</v>
       </c>
       <c r="B18" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -8277,22 +9034,22 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="F18" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="G18" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="H18" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="I18" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="J18" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8300,28 +9057,28 @@
         <v>19330051920143</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="E19" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="F19" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="H19" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="I19" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="J19" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8329,28 +9086,28 @@
         <v>19330051920141</v>
       </c>
       <c r="B20" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="C20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="E20" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="F20" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="G20" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="H20" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="J20" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8358,31 +9115,31 @@
         <v>19330051920144</v>
       </c>
       <c r="B21" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="D21" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="E21" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="F21" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="G21" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="H21" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="I21" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="J21" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8393,28 +9150,28 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="D22" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="E22" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="F22" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="G22" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="H22" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="I22" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="J22" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8422,25 +9179,31 @@
         <v>19330051920147</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="E23" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="F23" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="G23" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="H23" t="s">
-        <v>867</v>
+        <v>882</v>
+      </c>
+      <c r="I23" t="s">
+        <v>828</v>
+      </c>
+      <c r="J23" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8448,31 +9211,31 @@
         <v>19330051920431</v>
       </c>
       <c r="B24" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="C24" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="D24" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="E24" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="F24" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="G24" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="H24" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="I24" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="J24" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -8534,28 +9297,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="E2" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="F2" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="H2" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="I2" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="J2" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8563,31 +9326,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="C3" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="D3" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="E3" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="F3" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="G3" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="H3" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="I3" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="J3" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8595,31 +9358,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="E4" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="F4" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="G4" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="H4" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="I4" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="J4" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8627,31 +9390,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D5" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="E5" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="F5" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="G5" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="H5" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="I5" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="J5" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8665,19 +9428,19 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="E6" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
       <c r="F6" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="G6" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="H6" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8688,28 +9451,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="F7" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="G7" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="H7" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="I7" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="J7" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8717,28 +9480,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="C8" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="F8" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="H8" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="I8" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="J8" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8746,28 +9509,28 @@
         <v>19330051920193</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="D9" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="E9" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="F9" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="G9" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="H9" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="J9" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8775,31 +9538,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="F10" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="G10" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="H10" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="I10" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="J10" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8810,28 +9573,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="D11" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="E11" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="F11" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="G11" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="H11" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="I11" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="J11" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8839,28 +9602,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="E12" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="F12" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="H12" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="I12" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="J12" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8871,28 +9634,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="F13" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="G13" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="H13" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="I13" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="J13" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8900,31 +9663,31 @@
         <v>19330051920199</v>
       </c>
       <c r="B14" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="E14" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="F14" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="G14" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="H14" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="I14" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="J14" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8932,31 +9695,31 @@
         <v>19330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C15" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="D15" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="E15" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="F15" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="G15" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="H15" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="I15" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="J15" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8964,31 +9727,31 @@
         <v>19330051920201</v>
       </c>
       <c r="B16" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="C16" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="D16" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="E16" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="F16" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="G16" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="H16" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="I16" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="J16" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8996,28 +9759,28 @@
         <v>19330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D17" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="E17" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="F17" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="G17" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="H17" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="J17" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9025,28 +9788,28 @@
         <v>19330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="C18" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="D18" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="E18" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="F18" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="H18" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="I18" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="J18" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9054,28 +9817,28 @@
         <v>19330051920204</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="E19" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="F19" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="H19" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="I19" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="J19" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9083,31 +9846,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C20" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="D20" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="E20" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="F20" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="G20" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="H20" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="I20" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="J20" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9115,28 +9878,28 @@
         <v>19330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="C21" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="E21" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="F21" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="H21" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="I21" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="J21" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9144,28 +9907,28 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="E22" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="F22" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="G22" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="H22" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="J22" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9173,31 +9936,31 @@
         <v>19330051920211</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="E23" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="F23" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
       <c r="G23" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="H23" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="I23" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="J23" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9211,25 +9974,25 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="E24" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="F24" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="G24" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="H24" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="I24" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="J24" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9237,28 +10000,28 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="E25" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="F25" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="H25" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="I25" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="J25" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9272,25 +10035,25 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="E26" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="F26" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="G26" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="H26" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="I26" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="J26" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9301,28 +10064,28 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D27" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="E27" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="F27" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="G27" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="H27" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="I27" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="J27" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9333,22 +10096,22 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="D28" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="E28" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="F28" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="H28" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="J28" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9359,28 +10122,28 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="D29" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="E29" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="F29" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="G29" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="H29" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="I29" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="J29" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9388,31 +10151,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B30" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="C30" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="D30" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="E30" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="F30" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="G30" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="H30" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="I30" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="J30" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9429,16 +10192,16 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="F31" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="H31" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="J31" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9446,31 +10209,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B32" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="E32" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="F32" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="G32" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="H32" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="I32" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="J32" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -9484,19 +10247,19 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="E33" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="F33" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="H33" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="J33" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9504,28 +10267,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="D34" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="E34" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="F34" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="H34" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="I34" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="J34" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -9533,28 +10296,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="E35" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="F35" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="H35" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="I35" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="J35" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -9616,28 +10379,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="C2" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="D2" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="E2" t="s">
-        <v>1175</v>
+        <v>1193</v>
       </c>
       <c r="F2" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
       <c r="G2" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
       <c r="H2" t="s">
-        <v>1239</v>
+        <v>1257</v>
       </c>
       <c r="J2" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9645,31 +10408,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="E3" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="F3" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="G3" t="s">
-        <v>1227</v>
+        <v>1245</v>
       </c>
       <c r="H3" t="s">
-        <v>1240</v>
+        <v>1258</v>
       </c>
       <c r="I3" t="s">
-        <v>1265</v>
+        <v>1283</v>
       </c>
       <c r="J3" t="s">
-        <v>1286</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9677,31 +10440,31 @@
         <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="D4" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="E4" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="F4" t="s">
-        <v>1203</v>
+        <v>1221</v>
       </c>
       <c r="G4" t="s">
-        <v>1228</v>
+        <v>1246</v>
       </c>
       <c r="H4" t="s">
-        <v>1241</v>
+        <v>1259</v>
       </c>
       <c r="I4" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="J4" t="s">
-        <v>1287</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9709,31 +10472,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B5" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="E5" t="s">
-        <v>1178</v>
+        <v>1196</v>
       </c>
       <c r="F5" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="G5" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="H5" t="s">
-        <v>1242</v>
+        <v>1260</v>
       </c>
       <c r="I5" t="s">
-        <v>1267</v>
+        <v>1285</v>
       </c>
       <c r="J5" t="s">
-        <v>1288</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9741,28 +10504,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
       <c r="D6" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="E6" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="F6" t="s">
-        <v>1205</v>
+        <v>1223</v>
       </c>
       <c r="H6" t="s">
-        <v>1243</v>
+        <v>1261</v>
       </c>
       <c r="I6" t="s">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="J6" t="s">
-        <v>1289</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9770,31 +10533,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="E7" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
       <c r="F7" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="G7" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="H7" t="s">
-        <v>1244</v>
+        <v>1262</v>
       </c>
       <c r="I7" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="J7" t="s">
-        <v>1290</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9805,28 +10568,28 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="D8" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="E8" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="F8" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="G8" t="s">
-        <v>1230</v>
+        <v>1248</v>
       </c>
       <c r="H8" t="s">
-        <v>1245</v>
+        <v>1263</v>
       </c>
       <c r="I8" t="s">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="J8" t="s">
-        <v>1291</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9834,31 +10597,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B9" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="C9" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="D9" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="E9" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="F9" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="G9" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="H9" t="s">
-        <v>1246</v>
+        <v>1264</v>
       </c>
       <c r="I9" t="s">
-        <v>1271</v>
+        <v>1289</v>
       </c>
       <c r="J9" t="s">
-        <v>1292</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9866,31 +10629,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D10" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="E10" t="s">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="F10" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="G10" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="H10" t="s">
-        <v>1247</v>
+        <v>1265</v>
       </c>
       <c r="I10" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="J10" t="s">
-        <v>1293</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9898,31 +10661,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B11" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="E11" t="s">
-        <v>1184</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="G11" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="H11" t="s">
-        <v>1248</v>
+        <v>1266</v>
       </c>
       <c r="I11" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
       <c r="J11" t="s">
-        <v>1294</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9930,31 +10693,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="E12" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
       <c r="F12" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="G12" t="s">
-        <v>1231</v>
+        <v>1249</v>
       </c>
       <c r="H12" t="s">
-        <v>1249</v>
+        <v>1267</v>
       </c>
       <c r="I12" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="J12" t="s">
-        <v>1295</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9962,31 +10725,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B13" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="C13" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="D13" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="E13" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="s">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="G13" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="H13" t="s">
-        <v>1250</v>
+        <v>1268</v>
       </c>
       <c r="I13" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="J13" t="s">
-        <v>1296</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9997,25 +10760,25 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="D14" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
       <c r="E14" t="s">
-        <v>1187</v>
+        <v>1205</v>
       </c>
       <c r="F14" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="G14" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="H14" t="s">
-        <v>1251</v>
+        <v>1269</v>
       </c>
       <c r="J14" t="s">
-        <v>1297</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10023,31 +10786,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B15" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="E15" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="F15" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="G15" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="H15" t="s">
-        <v>1252</v>
+        <v>1270</v>
       </c>
       <c r="I15" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="J15" t="s">
-        <v>1298</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10055,28 +10818,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B16" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="E16" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="F16" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
       <c r="H16" t="s">
-        <v>1253</v>
+        <v>1271</v>
       </c>
       <c r="I16" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="J16" t="s">
-        <v>1299</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10084,31 +10847,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="E17" t="s">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="F17" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="G17" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="H17" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="I17" t="s">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="J17" t="s">
-        <v>1300</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10116,31 +10879,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
       <c r="G18" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
       <c r="H18" t="s">
-        <v>1255</v>
+        <v>1273</v>
       </c>
       <c r="I18" t="s">
-        <v>1277</v>
+        <v>1295</v>
       </c>
       <c r="J18" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10148,31 +10911,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="E19" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="F19" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="G19" t="s">
-        <v>1235</v>
+        <v>1253</v>
       </c>
       <c r="H19" t="s">
-        <v>1256</v>
+        <v>1274</v>
       </c>
       <c r="I19" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="J19" t="s">
-        <v>1301</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10180,28 +10943,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="C20" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="D20" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="E20" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="F20" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="H20" t="s">
-        <v>1257</v>
+        <v>1275</v>
       </c>
       <c r="I20" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="J20" t="s">
-        <v>1302</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10209,31 +10972,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D21" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="E21" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="F21" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="G21" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
       <c r="H21" t="s">
-        <v>1258</v>
+        <v>1276</v>
       </c>
       <c r="I21" t="s">
-        <v>1280</v>
+        <v>1298</v>
       </c>
       <c r="J21" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10241,31 +11004,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B22" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="E22" t="s">
-        <v>1195</v>
+        <v>1213</v>
       </c>
       <c r="F22" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="G22" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="H22" t="s">
-        <v>1259</v>
+        <v>1277</v>
       </c>
       <c r="I22" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="J22" t="s">
-        <v>1304</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10279,22 +11042,22 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>1170</v>
+        <v>1188</v>
       </c>
       <c r="E23" t="s">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="F23" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="H23" t="s">
-        <v>1260</v>
+        <v>1278</v>
       </c>
       <c r="I23" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
       <c r="J23" t="s">
-        <v>1305</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10308,25 +11071,25 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>1171</v>
+        <v>1189</v>
       </c>
       <c r="E24" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="F24" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="G24" t="s">
-        <v>1238</v>
+        <v>1256</v>
       </c>
       <c r="H24" t="s">
-        <v>1261</v>
+        <v>1279</v>
       </c>
       <c r="I24" t="s">
-        <v>1283</v>
+        <v>1301</v>
       </c>
       <c r="J24" t="s">
-        <v>1306</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10334,28 +11097,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="D25" t="s">
-        <v>1172</v>
+        <v>1190</v>
       </c>
       <c r="E25" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="F25" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="H25" t="s">
-        <v>1262</v>
+        <v>1280</v>
       </c>
       <c r="I25" t="s">
-        <v>1284</v>
+        <v>1302</v>
       </c>
       <c r="J25" t="s">
-        <v>1307</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10363,28 +11126,28 @@
         <v>19330051920244</v>
       </c>
       <c r="B26" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>1173</v>
+        <v>1191</v>
       </c>
       <c r="E26" t="s">
-        <v>1199</v>
+        <v>1217</v>
       </c>
       <c r="F26" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="G26" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="H26" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
       <c r="J26" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10395,25 +11158,1156 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20330051920001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>20330051920002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>20330051920361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
         <v>1149</v>
       </c>
+      <c r="D4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>20330051920003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>20330051920004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>20330051920005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>20330051920006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>20330051920007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>20330051920008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>20330051920362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>20330051920009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" t="s">
+        <v>963</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>20330051920010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>957</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>20330051920011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>20330051920012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>20330051920013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>20330051920014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>20330051920015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>20330051920016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>20330051920017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20330051920363</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20330051920021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>20330051920023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20330051920024</v>
+      </c>
+      <c r="B24" t="s">
+        <v>537</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>20330051920025</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>20330051920026</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>20330051920060</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1348</v>
+      </c>
       <c r="D27" t="s">
-        <v>1174</v>
+        <v>1373</v>
       </c>
       <c r="E27" t="s">
-        <v>1200</v>
+        <v>1406</v>
       </c>
       <c r="F27" t="s">
-        <v>1226</v>
+        <v>1442</v>
       </c>
       <c r="H27" t="s">
-        <v>1264</v>
+        <v>1486</v>
       </c>
       <c r="I27" t="s">
-        <v>1285</v>
+        <v>1509</v>
       </c>
       <c r="J27" t="s">
-        <v>1309</v>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>20330051920027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>20330051920028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>20330051920029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>20330051920031</v>
+      </c>
+      <c r="B31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>20330051920032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>594</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>20330051920033</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>20330051920034</v>
+      </c>
+      <c r="B34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" t="s">
+        <v>556</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>20330051920035</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>20330051920036</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>20330051920037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
